--- a/tech_tickers.xlsx
+++ b/tech_tickers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db29b5b5a8caf38b/个人投资 ^0 学习/IB Invest/final 2 copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Outlier/TRADING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D4DD4C3-D6D7-8D45-8597-1445A583F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3DF919-CE39-BC47-9BD7-99C7BCB63C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3180" windowWidth="27640" windowHeight="16940" xr2:uid="{865F2944-E298-3642-8724-E8C76AA01482}"/>
+    <workbookView xWindow="2660" yWindow="4540" windowWidth="27640" windowHeight="16940" xr2:uid="{865F2944-E298-3642-8724-E8C76AA01482}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9218,8 +9218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16066E0-384B-424E-B22F-C1F7507443E9}">
   <dimension ref="A1:G771"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
-      <selection activeCell="B771" sqref="B771"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
